--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H2">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J2">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.9113921981902</v>
+        <v>16.3542</v>
       </c>
       <c r="N2">
-        <v>15.9113921981902</v>
+        <v>49.0626</v>
       </c>
       <c r="O2">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="P2">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="Q2">
-        <v>2536.607324044452</v>
+        <v>3118.1669031948</v>
       </c>
       <c r="R2">
-        <v>2536.607324044452</v>
+        <v>28063.5021287532</v>
       </c>
       <c r="S2">
-        <v>0.06748443887050309</v>
+        <v>0.07027966169604066</v>
       </c>
       <c r="T2">
-        <v>0.06748443887050309</v>
+        <v>0.07027966169604065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H3">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J3">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45018304641192</v>
+        <v>2.477892333333333</v>
       </c>
       <c r="N3">
-        <v>2.45018304641192</v>
+        <v>7.433676999999999</v>
       </c>
       <c r="O3">
-        <v>0.05805047469162</v>
+        <v>0.05319022332950721</v>
       </c>
       <c r="P3">
-        <v>0.05805047469162</v>
+        <v>0.0531902233295072</v>
       </c>
       <c r="Q3">
-        <v>390.6102108076345</v>
+        <v>472.4463357107126</v>
       </c>
       <c r="R3">
-        <v>390.6102108076345</v>
+        <v>4252.017021396414</v>
       </c>
       <c r="S3">
-        <v>0.01039187683626675</v>
+        <v>0.01064836157720215</v>
       </c>
       <c r="T3">
-        <v>0.01039187683626675</v>
+        <v>0.01064836157720215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H4">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J4">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5195834642164</v>
+        <v>20.62789</v>
       </c>
       <c r="N4">
-        <v>18.5195834642164</v>
+        <v>61.88367</v>
       </c>
       <c r="O4">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="P4">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="Q4">
-        <v>2952.407336105203</v>
+        <v>3933.008271926659</v>
       </c>
       <c r="R4">
-        <v>2952.407336105203</v>
+        <v>35397.07444733994</v>
       </c>
       <c r="S4">
-        <v>0.07854647051816402</v>
+        <v>0.08864518782350345</v>
       </c>
       <c r="T4">
-        <v>0.07854647051816402</v>
+        <v>0.08864518782350343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>159.420828325316</v>
+        <v>190.664594</v>
       </c>
       <c r="H5">
-        <v>159.420828325316</v>
+        <v>571.993782</v>
       </c>
       <c r="I5">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="J5">
-        <v>0.1790145023183918</v>
+        <v>0.2001939625490346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.32664509344085</v>
+        <v>7.125502333333333</v>
       </c>
       <c r="N5">
-        <v>5.32664509344085</v>
+        <v>21.376507</v>
       </c>
       <c r="O5">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="P5">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="Q5">
-        <v>849.1781729913205</v>
+        <v>1358.581009431053</v>
       </c>
       <c r="R5">
-        <v>849.1781729913205</v>
+        <v>12227.22908487947</v>
       </c>
       <c r="S5">
-        <v>0.02259171609345791</v>
+        <v>0.0306207514522884</v>
       </c>
       <c r="T5">
-        <v>0.02259171609345791</v>
+        <v>0.0306207514522884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H6">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J6">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.9113921981902</v>
+        <v>16.3542</v>
       </c>
       <c r="N6">
-        <v>15.9113921981902</v>
+        <v>49.0626</v>
       </c>
       <c r="O6">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="P6">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="Q6">
-        <v>8440.565095687005</v>
+        <v>8685.885414755801</v>
       </c>
       <c r="R6">
-        <v>8440.565095687005</v>
+        <v>78172.9687328022</v>
       </c>
       <c r="S6">
-        <v>0.224554582742508</v>
+        <v>0.1957692155138226</v>
       </c>
       <c r="T6">
-        <v>0.224554582742508</v>
+        <v>0.1957692155138225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H7">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J7">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45018304641192</v>
+        <v>2.477892333333333</v>
       </c>
       <c r="N7">
-        <v>2.45018304641192</v>
+        <v>7.433676999999999</v>
       </c>
       <c r="O7">
-        <v>0.05805047469162</v>
+        <v>0.05319022332950721</v>
       </c>
       <c r="P7">
-        <v>0.05805047469162</v>
+        <v>0.0531902233295072</v>
       </c>
       <c r="Q7">
-        <v>1299.756127055985</v>
+        <v>1316.034344537502</v>
       </c>
       <c r="R7">
-        <v>1299.756127055985</v>
+        <v>11844.30910083752</v>
       </c>
       <c r="S7">
-        <v>0.03457898748120714</v>
+        <v>0.02966180175272297</v>
       </c>
       <c r="T7">
-        <v>0.03457898748120714</v>
+        <v>0.02966180175272295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H8">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J8">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.5195834642164</v>
+        <v>20.62789</v>
       </c>
       <c r="N8">
-        <v>18.5195834642164</v>
+        <v>61.88367</v>
       </c>
       <c r="O8">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="P8">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="Q8">
-        <v>9824.14032836843</v>
+        <v>10955.68654462994</v>
       </c>
       <c r="R8">
-        <v>9824.14032836843</v>
+        <v>98601.17890166947</v>
       </c>
       <c r="S8">
-        <v>0.2613635114748274</v>
+        <v>0.246927752076251</v>
       </c>
       <c r="T8">
-        <v>0.2613635114748274</v>
+        <v>0.246927752076251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>530.473071781051</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H9">
-        <v>530.473071781051</v>
+        <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273178</v>
       </c>
       <c r="J9">
-        <v>0.5956710546278936</v>
+        <v>0.5576551459273177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.32664509344085</v>
+        <v>7.125502333333333</v>
       </c>
       <c r="N9">
-        <v>5.32664509344085</v>
+        <v>21.376507</v>
       </c>
       <c r="O9">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="P9">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="Q9">
-        <v>2825.641785005031</v>
+        <v>3784.428268573725</v>
       </c>
       <c r="R9">
-        <v>2825.641785005031</v>
+        <v>34059.85441716353</v>
       </c>
       <c r="S9">
-        <v>0.07517397292935103</v>
+        <v>0.08529637658452133</v>
       </c>
       <c r="T9">
-        <v>0.07517397292935103</v>
+        <v>0.08529637658452131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H10">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J10">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9113921981902</v>
+        <v>16.3542</v>
       </c>
       <c r="N10">
-        <v>15.9113921981902</v>
+        <v>49.0626</v>
       </c>
       <c r="O10">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="P10">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="Q10">
-        <v>1035.589961169182</v>
+        <v>1293.0608065048</v>
       </c>
       <c r="R10">
-        <v>1035.589961169182</v>
+        <v>11637.5472585432</v>
       </c>
       <c r="S10">
-        <v>0.0275510548152165</v>
+        <v>0.02914400635208384</v>
       </c>
       <c r="T10">
-        <v>0.0275510548152165</v>
+        <v>0.02914400635208383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H11">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I11">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J11">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.45018304641192</v>
+        <v>2.477892333333333</v>
       </c>
       <c r="N11">
-        <v>2.45018304641192</v>
+        <v>7.433676999999999</v>
       </c>
       <c r="O11">
-        <v>0.05805047469162</v>
+        <v>0.05319022332950721</v>
       </c>
       <c r="P11">
-        <v>0.05805047469162</v>
+        <v>0.0531902233295072</v>
       </c>
       <c r="Q11">
-        <v>159.4697016003236</v>
+        <v>195.9169790617738</v>
       </c>
       <c r="R11">
-        <v>159.4697016003236</v>
+        <v>1763.252811555964</v>
       </c>
       <c r="S11">
-        <v>0.004242565740205132</v>
+        <v>0.004415728675352295</v>
       </c>
       <c r="T11">
-        <v>0.004242565740205132</v>
+        <v>0.004415728675352295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H12">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I12">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J12">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.5195834642164</v>
+        <v>20.62789</v>
       </c>
       <c r="N12">
-        <v>18.5195834642164</v>
+        <v>61.88367</v>
       </c>
       <c r="O12">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="P12">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="Q12">
-        <v>1205.343597951078</v>
+        <v>1630.964283174493</v>
       </c>
       <c r="R12">
-        <v>1205.343597951078</v>
+        <v>14678.67854857044</v>
       </c>
       <c r="S12">
-        <v>0.03206721654662238</v>
+        <v>0.0367599367251279</v>
       </c>
       <c r="T12">
-        <v>0.03206721654662238</v>
+        <v>0.03675993672512789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.08481145270071</v>
+        <v>79.06597733333334</v>
       </c>
       <c r="H13">
-        <v>65.08481145270071</v>
+        <v>237.197932</v>
       </c>
       <c r="I13">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="J13">
-        <v>0.07308408351082056</v>
+        <v>0.08301767503395074</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.32664509344085</v>
+        <v>7.125502333333333</v>
       </c>
       <c r="N13">
-        <v>5.32664509344085</v>
+        <v>21.376507</v>
       </c>
       <c r="O13">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="P13">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="Q13">
-        <v>346.683691582051</v>
+        <v>563.3848059759472</v>
       </c>
       <c r="R13">
-        <v>346.683691582051</v>
+        <v>5070.463253783524</v>
       </c>
       <c r="S13">
-        <v>0.009223246408776543</v>
+        <v>0.01269800328138673</v>
       </c>
       <c r="T13">
-        <v>0.009223246408776543</v>
+        <v>0.01269800328138673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.568290279773</v>
+        <v>151.5583673333333</v>
       </c>
       <c r="H14">
-        <v>135.568290279773</v>
+        <v>454.675102</v>
       </c>
       <c r="I14">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="J14">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.9113921981902</v>
+        <v>16.3542</v>
       </c>
       <c r="N14">
-        <v>15.9113921981902</v>
+        <v>49.0626</v>
       </c>
       <c r="O14">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="P14">
-        <v>0.3769774962169073</v>
+        <v>0.3510578481048182</v>
       </c>
       <c r="Q14">
-        <v>2157.080236279564</v>
+        <v>2478.6158510428</v>
       </c>
       <c r="R14">
-        <v>2157.080236279564</v>
+        <v>22307.5426593852</v>
       </c>
       <c r="S14">
-        <v>0.05738741978867976</v>
+        <v>0.05586496454287117</v>
       </c>
       <c r="T14">
-        <v>0.05738741978867976</v>
+        <v>0.05586496454287117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.568290279773</v>
+        <v>151.5583673333333</v>
       </c>
       <c r="H15">
-        <v>135.568290279773</v>
+        <v>454.675102</v>
       </c>
       <c r="I15">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="J15">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.45018304641192</v>
+        <v>2.477892333333333</v>
       </c>
       <c r="N15">
-        <v>2.45018304641192</v>
+        <v>7.433676999999999</v>
       </c>
       <c r="O15">
-        <v>0.05805047469162</v>
+        <v>0.05319022332950721</v>
       </c>
       <c r="P15">
-        <v>0.05805047469162</v>
+        <v>0.0531902233295072</v>
       </c>
       <c r="Q15">
-        <v>332.1671264745497</v>
+        <v>375.5453164677838</v>
       </c>
       <c r="R15">
-        <v>332.1671264745497</v>
+        <v>3379.907848210054</v>
       </c>
       <c r="S15">
-        <v>0.008837044633940982</v>
+        <v>0.008464331324229798</v>
       </c>
       <c r="T15">
-        <v>0.008837044633940982</v>
+        <v>0.008464331324229796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.568290279773</v>
+        <v>151.5583673333333</v>
       </c>
       <c r="H16">
-        <v>135.568290279773</v>
+        <v>454.675102</v>
       </c>
       <c r="I16">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="J16">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.5195834642164</v>
+        <v>20.62789</v>
       </c>
       <c r="N16">
-        <v>18.5195834642164</v>
+        <v>61.88367</v>
       </c>
       <c r="O16">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="P16">
-        <v>0.4387715492371828</v>
+        <v>0.4427965094191643</v>
       </c>
       <c r="Q16">
-        <v>2510.668266937373</v>
+        <v>3126.329329931593</v>
       </c>
       <c r="R16">
-        <v>2510.668266937373</v>
+        <v>28136.96396938434</v>
       </c>
       <c r="S16">
-        <v>0.06679435069756895</v>
+        <v>0.070463632794282</v>
       </c>
       <c r="T16">
-        <v>0.06679435069756895</v>
+        <v>0.07046363279428199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.568290279773</v>
+        <v>151.5583673333333</v>
       </c>
       <c r="H17">
-        <v>135.568290279773</v>
+        <v>454.675102</v>
       </c>
       <c r="I17">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="J17">
-        <v>0.152230359542894</v>
+        <v>0.1591332164896969</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.32664509344085</v>
+        <v>7.125502333333333</v>
       </c>
       <c r="N17">
-        <v>5.32664509344085</v>
+        <v>21.376507</v>
       </c>
       <c r="O17">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="P17">
-        <v>0.1262004798542898</v>
+        <v>0.1529554191465104</v>
       </c>
       <c r="Q17">
-        <v>722.1241682449178</v>
+        <v>1079.929500069857</v>
       </c>
       <c r="R17">
-        <v>722.1241682449178</v>
+        <v>9719.365500628715</v>
       </c>
       <c r="S17">
-        <v>0.01921154442270428</v>
+        <v>0.02434028782831398</v>
       </c>
       <c r="T17">
-        <v>0.01921154442270428</v>
+        <v>0.02434028782831398</v>
       </c>
     </row>
   </sheetData>
